--- a/18/sdamgia/todo38952.xlsx
+++ b/18/sdamgia/todo38952.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ege_bk\18\sdamgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C6B6C8-F0BA-404A-886D-0041F3EE72F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8F79B-F05F-4243-83D0-3FBD0EC0D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>макс=</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,11 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>A1</f>
         <v>2000</v>
@@ -1218,819 +1215,816 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>IF(A2&gt;A1,A19+A2,A19-A2)</f>
         <v>1989</v>
       </c>
       <c r="B20" s="2">
-        <f>MIN(B19,A20)+B2</f>
-        <v>1978</v>
+        <f>MAX(IF(B2&gt;B1,B19+B2,B19-B2),IF(B2&gt;A2,A20+B2,A20-B2))</f>
+        <v>2055</v>
       </c>
       <c r="C20" s="2">
-        <f>MIN(C19,B20)+C2</f>
-        <v>1858</v>
+        <f>MAX(IF(C2&gt;C1,C19+C2,C19-C2),IF(C2&gt;B2,B20+C2,B20-C2))</f>
+        <v>2052</v>
       </c>
       <c r="D20" s="2">
-        <f>MIN(D19,C20)+D2</f>
-        <v>1872</v>
+        <f>MAX(IF(D2&gt;D1,D19+D2,D19-D2),IF(D2&gt;C2,C20+D2,C20-D2))</f>
+        <v>2066</v>
       </c>
       <c r="E20" s="2">
-        <f>MIN(E19,D20)+E2</f>
-        <v>1908</v>
+        <f>MAX(IF(E2&gt;E1,E19+E2,E19-E2),IF(E2&gt;D2,D20+E2,D20-E2))</f>
+        <v>2102</v>
       </c>
       <c r="F20" s="2">
-        <f>MIN(F19,E20)+F2</f>
-        <v>1973</v>
+        <f>MAX(IF(F2&gt;F1,F19+F2,F19-F2),IF(F2&gt;E2,E20+F2,E20-F2))</f>
+        <v>2167</v>
       </c>
       <c r="G20" s="2">
-        <f>MIN(G19,F20)+G2</f>
-        <v>1970</v>
+        <f>MAX(IF(G2&gt;G1,G19+G2,G19-G2),IF(G2&gt;F2,F20+G2,F20-G2))</f>
+        <v>2116</v>
       </c>
       <c r="H20" s="2">
-        <f>MIN(H19,G20)+H2</f>
-        <v>1974</v>
+        <f>MAX(IF(H2&gt;H1,H19+H2,H19-H2),IF(H2&gt;G2,G20+H2,G20-H2))</f>
+        <v>2112</v>
       </c>
       <c r="I20" s="2">
-        <f>MIN(I19,H20)+I2</f>
-        <v>1997</v>
+        <f>MAX(IF(I2&gt;I1,I19+I2,I19-I2),IF(I2&gt;H2,H20+I2,H20-I2))</f>
+        <v>2157</v>
       </c>
       <c r="J20" s="2">
-        <f>MIN(J19,I20)+J2</f>
-        <v>1972</v>
+        <f>MAX(IF(J2&gt;J1,J19+J2,J19-J2),IF(J2&gt;I2,I20+J2,I20-J2))</f>
+        <v>2235</v>
       </c>
       <c r="K20" s="2">
-        <f>MIN(K19,J20)+K2</f>
-        <v>1887</v>
+        <f>MAX(IF(K2&gt;K1,K19+K2,K19-K2),IF(K2&gt;J2,J20+K2,J20-K2))</f>
+        <v>2223</v>
       </c>
       <c r="L20" s="2">
-        <f>MIN(L19,K20)+L2</f>
-        <v>1918</v>
+        <f>MAX(IF(L2&gt;L1,L19+L2,L19-L2),IF(L2&gt;K2,K20+L2,K20-L2))</f>
+        <v>2254</v>
       </c>
       <c r="M20" s="2">
-        <f>MIN(M19,L20)+M2</f>
-        <v>2009</v>
+        <f>MAX(IF(M2&gt;M1,M19+M2,M19-M2),IF(M2&gt;L2,L20+M2,L20-M2))</f>
+        <v>2345</v>
       </c>
       <c r="N20" s="2">
-        <f>MIN(N19,M20)+N2</f>
-        <v>2021</v>
+        <f>MAX(IF(N2&gt;N1,N19+N2,N19-N2),IF(N2&gt;M2,M20+N2,M20-N2))</f>
+        <v>2333</v>
       </c>
       <c r="O20" s="2">
-        <f>MIN(O19,N20)+O2</f>
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O2&gt;O1,O19+O2,O19-O2),IF(O2&gt;N2,N20+O2,N20-O2))</f>
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" ref="A21:A33" si="1">IF(A3&gt;A2,A20+A3,A20-A3)</f>
         <v>2050</v>
       </c>
       <c r="B21" s="2">
-        <f>MIN(B20,A21)+B3</f>
-        <v>2019</v>
+        <f>MAX(IF(B3&gt;B2,B20+B3,B20-B3),IF(B3&gt;A3,A21+B3,A21-B3))</f>
+        <v>2014</v>
       </c>
       <c r="C21" s="2">
-        <f>MIN(C20,B21)+C3</f>
-        <v>1904</v>
+        <f>MAX(IF(C3&gt;C2,C20+C3,C20-C3),IF(C3&gt;B3,B21+C3,B21-C3))</f>
+        <v>2098</v>
       </c>
       <c r="D21" s="2">
-        <f>MIN(D20,C21)+D3</f>
-        <v>1942</v>
+        <f>MAX(IF(D3&gt;D2,D20+D3,D20-D3),IF(D3&gt;C3,C21+D3,C21-D3))</f>
+        <v>2168</v>
       </c>
       <c r="E21" s="2">
-        <f>MIN(E20,D21)+E3</f>
-        <v>1947</v>
+        <f>MAX(IF(E3&gt;E2,E20+E3,E20-E3),IF(E3&gt;D3,D21+E3,D21-E3))</f>
+        <v>2141</v>
       </c>
       <c r="F21" s="2">
-        <f>MIN(F20,E21)+F3</f>
-        <v>1954</v>
+        <f>MAX(IF(F3&gt;F2,F20+F3,F20-F3),IF(F3&gt;E3,E21+F3,E21-F3))</f>
+        <v>2160</v>
       </c>
       <c r="G21" s="2">
-        <f>MIN(G20,F21)+G3</f>
-        <v>2030</v>
+        <f>MAX(IF(G3&gt;G2,G20+G3,G20-G3),IF(G3&gt;F3,F21+G3,F21-G3))</f>
+        <v>2236</v>
       </c>
       <c r="H21" s="2">
-        <f>MIN(H20,G21)+H3</f>
-        <v>1997</v>
+        <f>MAX(IF(H3&gt;H2,H20+H3,H20-H3),IF(H3&gt;G3,G21+H3,G21-H3))</f>
+        <v>2213</v>
       </c>
       <c r="I21" s="2">
-        <f>MIN(I20,H21)+I3</f>
-        <v>2000</v>
+        <f>MAX(IF(I3&gt;I2,I20+I3,I20-I3),IF(I3&gt;H3,H21+I3,H21-I3))</f>
+        <v>2210</v>
       </c>
       <c r="J21" s="2">
-        <f>MIN(J20,I21)+J3</f>
-        <v>1976</v>
+        <f>MAX(IF(J3&gt;J2,J20+J3,J20-J3),IF(J3&gt;I3,I21+J3,I21-J3))</f>
+        <v>2231</v>
       </c>
       <c r="K21" s="2">
-        <f>MIN(K20,J21)+K3</f>
-        <v>1949</v>
+        <f>MAX(IF(K3&gt;K2,K20+K3,K20-K3),IF(K3&gt;J3,J21+K3,J21-K3))</f>
+        <v>2293</v>
       </c>
       <c r="L21" s="2">
-        <f>MIN(L20,K21)+L3</f>
-        <v>1993</v>
+        <f>MAX(IF(L3&gt;L2,L20+L3,L20-L3),IF(L3&gt;K3,K21+L3,K21-L3))</f>
+        <v>2368</v>
       </c>
       <c r="M21" s="2">
-        <f>MIN(M20,L21)+M3</f>
-        <v>2056</v>
+        <f>MAX(IF(M3&gt;M2,M20+M3,M20-M3),IF(M3&gt;L3,L21+M3,L21-M3))</f>
+        <v>2305</v>
       </c>
       <c r="N21" s="2">
-        <f>MIN(N20,M21)+N3</f>
-        <v>2086</v>
+        <f>MAX(IF(N3&gt;N2,N20+N3,N20-N3),IF(N3&gt;M3,M21+N3,M21-N3))</f>
+        <v>2398</v>
       </c>
       <c r="O21" s="2">
-        <f>MIN(O20,N21)+O3</f>
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O3&gt;O2,O20+O3,O20-O3),IF(O3&gt;N3,N21+O3,N21-O3))</f>
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>2136</v>
       </c>
       <c r="B22" s="2">
-        <f>MIN(B21,A22)+B4</f>
-        <v>2092</v>
+        <f>MAX(IF(B4&gt;B3,B21+B4,B21-B4),IF(B4&gt;A4,A22+B4,A22-B4))</f>
+        <v>2087</v>
       </c>
       <c r="C22" s="2">
-        <f>MIN(C21,B22)+C4</f>
-        <v>1969</v>
+        <f>MAX(IF(C4&gt;C3,C21+C4,C21-C4),IF(C4&gt;B4,B22+C4,B22-C4))</f>
+        <v>2163</v>
       </c>
       <c r="D22" s="2">
-        <f>MIN(D21,C22)+D4</f>
-        <v>1986</v>
+        <f>MAX(IF(D4&gt;D3,D21+D4,D21-D4),IF(D4&gt;C4,C22+D4,C22-D4))</f>
+        <v>2124</v>
       </c>
       <c r="E22" s="2">
-        <f>MIN(E21,D22)+E4</f>
-        <v>1989</v>
+        <f>MAX(IF(E4&gt;E3,E21+E4,E21-E4),IF(E4&gt;D4,D22+E4,D22-E4))</f>
+        <v>2183</v>
       </c>
       <c r="F22" s="2">
-        <f>MIN(F21,E22)+F4</f>
-        <v>1968</v>
+        <f>MAX(IF(F4&gt;F3,F21+F4,F21-F4),IF(F4&gt;E4,E22+F4,E22-F4))</f>
+        <v>2174</v>
       </c>
       <c r="G22" s="2">
-        <f>MIN(G21,F22)+G4</f>
-        <v>2018</v>
+        <f>MAX(IF(G4&gt;G3,G21+G4,G21-G4),IF(G4&gt;F4,F22+G4,F22-G4))</f>
+        <v>2224</v>
       </c>
       <c r="H22" s="2">
-        <f>MIN(H21,G22)+H4</f>
-        <v>2089</v>
+        <f>MAX(IF(H4&gt;H3,H21+H4,H21-H4),IF(H4&gt;G4,G22+H4,G22-H4))</f>
+        <v>2316</v>
       </c>
       <c r="I22" s="2">
-        <f>MIN(I21,H22)+I4</f>
-        <v>2094</v>
+        <f>MAX(IF(I4&gt;I3,I21+I4,I21-I4),IF(I4&gt;H4,H22+I4,H22-I4))</f>
+        <v>2410</v>
       </c>
       <c r="J22" s="2">
-        <f>MIN(J21,I22)+J4</f>
-        <v>2013</v>
+        <f>MAX(IF(J4&gt;J3,J21+J4,J21-J4),IF(J4&gt;I4,I22+J4,I22-J4))</f>
+        <v>2373</v>
       </c>
       <c r="K22" s="2">
-        <f>MIN(K21,J22)+K4</f>
-        <v>1955</v>
+        <f>MAX(IF(K4&gt;K3,K21+K4,K21-K4),IF(K4&gt;J4,J22+K4,J22-K4))</f>
+        <v>2367</v>
       </c>
       <c r="L22" s="2">
-        <f>MIN(L21,K22)+L4</f>
-        <v>2033</v>
+        <f>MAX(IF(L4&gt;L3,L21+L4,L21-L4),IF(L4&gt;K4,K22+L4,K22-L4))</f>
+        <v>2446</v>
       </c>
       <c r="M22" s="2">
-        <f>MIN(M21,L22)+M4</f>
-        <v>2079</v>
+        <f>MAX(IF(M4&gt;M3,M21+M4,M21-M4),IF(M4&gt;L4,L22+M4,L22-M4))</f>
+        <v>2400</v>
       </c>
       <c r="N22" s="2">
-        <f>MIN(N21,M22)+N4</f>
-        <v>2176</v>
+        <f>MAX(IF(N4&gt;N3,N21+N4,N21-N4),IF(N4&gt;M4,M22+N4,M22-N4))</f>
+        <v>2497</v>
       </c>
       <c r="O22" s="2">
-        <f>MIN(O21,N22)+O4</f>
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O4&gt;O3,O21+O4,O21-O4),IF(O4&gt;N4,N22+O4,N22-O4))</f>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>2231</v>
       </c>
       <c r="B23" s="2">
-        <f>MIN(B22,A23)+B5</f>
-        <v>2132</v>
+        <f>MAX(IF(B5&gt;B4,B22+B5,B22-B5),IF(B5&gt;A5,A23+B5,A23-B5))</f>
+        <v>2191</v>
       </c>
       <c r="C23" s="2">
-        <f>MIN(C22,B23)+C5</f>
-        <v>2020</v>
+        <f>MAX(IF(C5&gt;C4,C22+C5,C22-C5),IF(C5&gt;B5,B23+C5,B23-C5))</f>
+        <v>2242</v>
       </c>
       <c r="D23" s="2">
-        <f>MIN(D22,C23)+D5</f>
-        <v>2048</v>
+        <f>MAX(IF(D5&gt;D4,D22+D5,D22-D5),IF(D5&gt;C5,C23+D5,C23-D5))</f>
+        <v>2304</v>
       </c>
       <c r="E23" s="2">
-        <f>MIN(E22,D23)+E5</f>
-        <v>2001</v>
+        <f>MAX(IF(E5&gt;E4,E22+E5,E22-E5),IF(E5&gt;D5,D23+E5,D23-E5))</f>
+        <v>2292</v>
       </c>
       <c r="F23" s="2">
-        <f>MIN(F22,E23)+F5</f>
-        <v>1985</v>
+        <f>MAX(IF(F5&gt;F4,F22+F5,F22-F5),IF(F5&gt;E5,E23+F5,E23-F5))</f>
+        <v>2309</v>
       </c>
       <c r="G23" s="2">
-        <f>MIN(G22,F23)+G5</f>
-        <v>2043</v>
+        <f>MAX(IF(G5&gt;G4,G22+G5,G22-G5),IF(G5&gt;F5,F23+G5,F23-G5))</f>
+        <v>2367</v>
       </c>
       <c r="H23" s="2">
-        <f>MIN(H22,G23)+H5</f>
-        <v>2092</v>
+        <f>MAX(IF(H5&gt;H4,H22+H5,H22-H5),IF(H5&gt;G5,G23+H5,G23-H5))</f>
+        <v>2318</v>
       </c>
       <c r="I23" s="2">
-        <f>MIN(I22,H23)+I5</f>
-        <v>2175</v>
+        <f>MAX(IF(I5&gt;I4,I22+I5,I22-I5),IF(I5&gt;H5,H23+I5,H23-I5))</f>
+        <v>2401</v>
       </c>
       <c r="J23" s="2">
-        <f>MIN(J22,I23)+J5</f>
-        <v>2110</v>
+        <f>MAX(IF(J5&gt;J4,J22+J5,J22-J5),IF(J5&gt;I5,I23+J5,I23-J5))</f>
+        <v>2498</v>
       </c>
       <c r="K23" s="2">
-        <f>MIN(K22,J23)+K5</f>
-        <v>2025</v>
+        <f>MAX(IF(K5&gt;K4,K22+K5,K22-K5),IF(K5&gt;J5,J23+K5,J23-K5))</f>
+        <v>2437</v>
       </c>
       <c r="L23" s="2">
-        <f>MIN(L22,K23)+L5</f>
-        <v>2039</v>
+        <f>MAX(IF(L5&gt;L4,L22+L5,L22-L5),IF(L5&gt;K5,K23+L5,K23-L5))</f>
+        <v>2432</v>
       </c>
       <c r="M23" s="2">
-        <f>MIN(M22,L23)+M5</f>
-        <v>2045</v>
+        <f>MAX(IF(M5&gt;M4,M22+M5,M22-M5),IF(M5&gt;L5,L23+M5,L23-M5))</f>
+        <v>2426</v>
       </c>
       <c r="N23" s="2">
-        <f>MIN(N22,M23)+N5</f>
-        <v>2092</v>
+        <f>MAX(IF(N5&gt;N4,N22+N5,N22-N5),IF(N5&gt;M5,M23+N5,M23-N5))</f>
+        <v>2473</v>
       </c>
       <c r="O23" s="2">
-        <f>MIN(O22,N23)+O5</f>
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O5&gt;O4,O22+O5,O22-O5),IF(O5&gt;N5,N23+O5,N23-O5))</f>
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>2156</v>
       </c>
       <c r="B24" s="2">
-        <f>MIN(B23,A24)+B6</f>
-        <v>2175</v>
+        <f>MAX(IF(B6&gt;B5,B23+B6,B23-B6),IF(B6&gt;A6,A24+B6,A24-B6))</f>
+        <v>2234</v>
       </c>
       <c r="C24" s="2">
-        <f>MIN(C23,B24)+C6</f>
-        <v>2042</v>
+        <f>MAX(IF(C6&gt;C5,C23+C6,C23-C6),IF(C6&gt;B6,B24+C6,B24-C6))</f>
+        <v>2220</v>
       </c>
       <c r="D24" s="2">
-        <f>MIN(D23,C24)+D6</f>
-        <v>2119</v>
+        <f>MAX(IF(D6&gt;D5,D23+D6,D23-D6),IF(D6&gt;C6,C24+D6,C24-D6))</f>
+        <v>2381</v>
       </c>
       <c r="E24" s="2">
-        <f>MIN(E23,D24)+E6</f>
-        <v>2072</v>
+        <f>MAX(IF(E6&gt;E5,E23+E6,E23-E6),IF(E6&gt;D6,D24+E6,D24-E6))</f>
+        <v>2363</v>
       </c>
       <c r="F24" s="2">
-        <f>MIN(F23,E24)+F6</f>
-        <v>2038</v>
+        <f>MAX(IF(F6&gt;F5,F23+F6,F23-F6),IF(F6&gt;E6,E24+F6,E24-F6))</f>
+        <v>2362</v>
       </c>
       <c r="G24" s="2">
-        <f>MIN(G23,F24)+G6</f>
-        <v>2057</v>
+        <f>MAX(IF(G6&gt;G5,G23+G6,G23-G6),IF(G6&gt;F6,F24+G6,F24-G6))</f>
+        <v>2348</v>
       </c>
       <c r="H24" s="2">
-        <f>MIN(H23,G24)+H6</f>
-        <v>2115</v>
+        <f>MAX(IF(H6&gt;H5,H23+H6,H23-H6),IF(H6&gt;G6,G24+H6,G24-H6))</f>
+        <v>2406</v>
       </c>
       <c r="I24" s="2">
-        <f>MIN(I23,H24)+I6</f>
-        <v>2152</v>
+        <f>MAX(IF(I6&gt;I5,I23+I6,I23-I6),IF(I6&gt;H6,H24+I6,H24-I6))</f>
+        <v>2369</v>
       </c>
       <c r="J24" s="2">
-        <f>MIN(J23,I24)+J6</f>
-        <v>2179</v>
+        <f>MAX(IF(J6&gt;J5,J23+J6,J23-J6),IF(J6&gt;I6,I24+J6,I24-J6))</f>
+        <v>2438</v>
       </c>
       <c r="K24" s="2">
-        <f>MIN(K23,J24)+K6</f>
-        <v>2073</v>
+        <f>MAX(IF(K6&gt;K5,K23+K6,K23-K6),IF(K6&gt;J6,J24+K6,J24-K6))</f>
+        <v>2390</v>
       </c>
       <c r="L24" s="2">
-        <f>MIN(L23,K24)+L6</f>
-        <v>2137</v>
+        <f>MAX(IF(L6&gt;L5,L23+L6,L23-L6),IF(L6&gt;K6,K24+L6,K24-L6))</f>
+        <v>2530</v>
       </c>
       <c r="M24" s="2">
-        <f>MIN(M23,L24)+M6</f>
-        <v>2142</v>
+        <f>MAX(IF(M6&gt;M5,M23+M6,M23-M6),IF(M6&gt;L6,L24+M6,L24-M6))</f>
+        <v>2523</v>
       </c>
       <c r="N24" s="2">
-        <f>MIN(N23,M24)+N6</f>
-        <v>2181</v>
+        <f>MAX(IF(N6&gt;N5,N23+N6,N23-N6),IF(N6&gt;M6,M24+N6,M24-N6))</f>
+        <v>2562</v>
       </c>
       <c r="O24" s="2">
-        <f>MIN(O23,N24)+O6</f>
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O6&gt;O5,O23+O6,O23-O6),IF(O6&gt;N6,N24+O6,N24-O6))</f>
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>2134</v>
       </c>
       <c r="B25" s="2">
-        <f>MIN(B24,A25)+B7</f>
-        <v>2218</v>
+        <f>MAX(IF(B7&gt;B6,B24+B7,B24-B7),IF(B7&gt;A7,A25+B7,A25-B7))</f>
+        <v>2318</v>
       </c>
       <c r="C25" s="2">
-        <f>MIN(C24,B25)+C7</f>
-        <v>2076</v>
+        <f>MAX(IF(C7&gt;C6,C24+C7,C24-C7),IF(C7&gt;B7,B25+C7,B25-C7))</f>
+        <v>2284</v>
       </c>
       <c r="D25" s="2">
-        <f>MIN(D24,C25)+D7</f>
-        <v>2128</v>
+        <f>MAX(IF(D7&gt;D6,D24+D7,D24-D7),IF(D7&gt;C7,C25+D7,C25-D7))</f>
+        <v>2336</v>
       </c>
       <c r="E25" s="2">
-        <f>MIN(E24,D25)+E7</f>
-        <v>2109</v>
+        <f>MAX(IF(E7&gt;E6,E24+E7,E24-E7),IF(E7&gt;D7,D25+E7,D25-E7))</f>
+        <v>2326</v>
       </c>
       <c r="F25" s="2">
-        <f>MIN(F24,E25)+F7</f>
-        <v>2077</v>
+        <f>MAX(IF(F7&gt;F6,F24+F7,F24-F7),IF(F7&gt;E7,E25+F7,E25-F7))</f>
+        <v>2365</v>
       </c>
       <c r="G25" s="2">
-        <f>MIN(G24,F25)+G7</f>
-        <v>2129</v>
+        <f>MAX(IF(G7&gt;G6,G24+G7,G24-G7),IF(G7&gt;F7,F25+G7,F25-G7))</f>
+        <v>2437</v>
       </c>
       <c r="H25" s="2">
-        <f>MIN(H24,G25)+H7</f>
-        <v>2199</v>
+        <f>MAX(IF(H7&gt;H6,H24+H7,H24-H7),IF(H7&gt;G7,G25+H7,G25-H7))</f>
+        <v>2521</v>
       </c>
       <c r="I25" s="2">
-        <f>MIN(I24,H25)+I7</f>
-        <v>2171</v>
+        <f>MAX(IF(I7&gt;I6,I24+I7,I24-I7),IF(I7&gt;H7,H25+I7,H25-I7))</f>
+        <v>2502</v>
       </c>
       <c r="J25" s="2">
-        <f>MIN(J24,I25)+J7</f>
-        <v>2220</v>
+        <f>MAX(IF(J7&gt;J6,J24+J7,J24-J7),IF(J7&gt;I7,I25+J7,I25-J7))</f>
+        <v>2551</v>
       </c>
       <c r="K25" s="2">
-        <f>MIN(K24,J25)+K7</f>
-        <v>2083</v>
+        <f>MAX(IF(K7&gt;K6,K24+K7,K24-K7),IF(K7&gt;J7,J25+K7,J25-K7))</f>
+        <v>2541</v>
       </c>
       <c r="L25" s="2">
-        <f>MIN(L24,K25)+L7</f>
-        <v>2161</v>
+        <f>MAX(IF(L7&gt;L6,L24+L7,L24-L7),IF(L7&gt;K7,K25+L7,K25-L7))</f>
+        <v>2619</v>
       </c>
       <c r="M25" s="2">
-        <f>MIN(M24,L25)+M7</f>
-        <v>2217</v>
+        <f>MAX(IF(M7&gt;M6,M24+M7,M24-M7),IF(M7&gt;L7,L25+M7,L25-M7))</f>
+        <v>2544</v>
       </c>
       <c r="N25" s="2">
-        <f>MIN(N24,M25)+N7</f>
-        <v>2188</v>
+        <f>MAX(IF(N7&gt;N6,N24+N7,N24-N7),IF(N7&gt;M7,M25+N7,M25-N7))</f>
+        <v>2555</v>
       </c>
       <c r="O25" s="2">
-        <f>MIN(O24,N25)+O7</f>
-        <v>2224</v>
-      </c>
-      <c r="R25" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25">
+        <f>MAX(IF(O7&gt;O6,O24+O7,O24-O7),IF(O7&gt;N7,N25+O7,N25-O7))</f>
+        <v>2597</v>
+      </c>
+      <c r="S25" s="4">
         <v>3837</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="4">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>2193</v>
       </c>
       <c r="B26" s="2">
-        <f>MIN(B25,A26)+B8</f>
-        <v>2286</v>
+        <f>MAX(IF(B8&gt;B7,B25+B8,B25-B8),IF(B8&gt;A8,A26+B8,A26-B8))</f>
+        <v>2411</v>
       </c>
       <c r="C26" s="2">
-        <f>MIN(C25,B26)+C8</f>
-        <v>2085</v>
+        <f>MAX(IF(C8&gt;C7,C25+C8,C25-C8),IF(C8&gt;B8,B26+C8,B26-C8))</f>
+        <v>2402</v>
       </c>
       <c r="D26" s="2">
-        <f>MIN(D25,C26)+D8</f>
-        <v>2175</v>
+        <f>MAX(IF(D8&gt;D7,D25+D8,D25-D8),IF(D8&gt;C8,C26+D8,C26-D8))</f>
+        <v>2492</v>
       </c>
       <c r="E26" s="2">
-        <f>MIN(E25,D26)+E8</f>
-        <v>2122</v>
+        <f>MAX(IF(E8&gt;E7,E25+E8,E25-E8),IF(E8&gt;D8,D26+E8,D26-E8))</f>
+        <v>2479</v>
       </c>
       <c r="F26" s="2">
-        <f>MIN(F25,E26)+F8</f>
-        <v>2108</v>
+        <f>MAX(IF(F8&gt;F7,F25+F8,F25-F8),IF(F8&gt;E8,E26+F8,E26-F8))</f>
+        <v>2510</v>
       </c>
       <c r="G26" s="2">
-        <f>MIN(G25,F26)+G8</f>
-        <v>2201</v>
+        <f>MAX(IF(G8&gt;G7,G25+G8,G25-G8),IF(G8&gt;F8,F26+G8,F26-G8))</f>
+        <v>2603</v>
       </c>
       <c r="H26" s="2">
-        <f>MIN(H25,G26)+H8</f>
-        <v>2253</v>
+        <f>MAX(IF(H8&gt;H7,H25+H8,H25-H8),IF(H8&gt;G8,G26+H8,G26-H8))</f>
+        <v>2549</v>
       </c>
       <c r="I26" s="2">
-        <f>MIN(I25,H26)+I8</f>
-        <v>2244</v>
+        <f>MAX(IF(I8&gt;I7,I25+I8,I25-I8),IF(I8&gt;H8,H26+I8,H26-I8))</f>
+        <v>2622</v>
       </c>
       <c r="J26" s="2">
-        <f>MIN(J25,I26)+J8</f>
-        <v>2272</v>
+        <f>MAX(IF(J8&gt;J7,J25+J8,J25-J8),IF(J8&gt;I8,I26+J8,I26-J8))</f>
+        <v>2603</v>
       </c>
       <c r="K26" s="2">
-        <f>MIN(K25,J26)+K8</f>
-        <v>2087</v>
+        <f>MAX(IF(K8&gt;K7,K25+K8,K25-K8),IF(K8&gt;J8,J26+K8,J26-K8))</f>
+        <v>2599</v>
       </c>
       <c r="L26" s="2">
-        <f>MIN(L25,K26)+L8</f>
-        <v>2181</v>
+        <f>MAX(IF(L8&gt;L7,L25+L8,L25-L8),IF(L8&gt;K8,K26+L8,K26-L8))</f>
+        <v>2713</v>
       </c>
       <c r="M26" s="2">
-        <f>MIN(M25,L26)+M8</f>
-        <v>2218</v>
+        <f>MAX(IF(M8&gt;M7,M25+M8,M25-M8),IF(M8&gt;L8,L26+M8,L26-M8))</f>
+        <v>2676</v>
       </c>
       <c r="N26" s="2">
-        <f>MIN(N25,M26)+N8</f>
-        <v>2269</v>
+        <f>MAX(IF(N8&gt;N7,N25+N8,N25-N8),IF(N8&gt;M8,M26+N8,M26-N8))</f>
+        <v>2757</v>
       </c>
       <c r="O26" s="2">
-        <f>MIN(O25,N26)+O8</f>
-        <v>2246</v>
-      </c>
-      <c r="S26">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O8&gt;O7,O25+O8,O25-O8),IF(O8&gt;N8,N26+O8,N26-O8))</f>
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>2261</v>
       </c>
       <c r="B27" s="2">
-        <f>MIN(B26,A27)+B9</f>
+        <f>MAX(IF(B9&gt;B8,B26+B9,B26-B9),IF(B9&gt;A9,A27+B9,A27-B9))</f>
         <v>2337</v>
       </c>
       <c r="C27" s="2">
-        <f>MIN(C26,B27)+C9</f>
-        <v>2169</v>
+        <f>MAX(IF(C9&gt;C8,C26+C9,C26-C9),IF(C9&gt;B9,B27+C9,B27-C9))</f>
+        <v>2486</v>
       </c>
       <c r="D27" s="2">
-        <f>MIN(D26,C27)+D9</f>
-        <v>2252</v>
+        <f>MAX(IF(D9&gt;D8,D26+D9,D26-D9),IF(D9&gt;C9,C27+D9,C27-D9))</f>
+        <v>2409</v>
       </c>
       <c r="E27" s="2">
-        <f>MIN(E26,D27)+E9</f>
-        <v>2209</v>
+        <f>MAX(IF(E9&gt;E8,E26+E9,E26-E9),IF(E9&gt;D9,D27+E9,D27-E9))</f>
+        <v>2566</v>
       </c>
       <c r="F27" s="2">
-        <f>MIN(F26,E27)+F9</f>
-        <v>2144</v>
+        <f>MAX(IF(F9&gt;F8,F26+F9,F26-F9),IF(F9&gt;E9,E27+F9,E27-F9))</f>
+        <v>2546</v>
       </c>
       <c r="G27" s="2">
-        <f>MIN(G26,F27)+G9</f>
-        <v>2170</v>
+        <f>MAX(IF(G9&gt;G8,G26+G9,G26-G9),IF(G9&gt;F9,F27+G9,F27-G9))</f>
+        <v>2577</v>
       </c>
       <c r="H27" s="2">
-        <f>MIN(H26,G27)+H9</f>
-        <v>2188</v>
+        <f>MAX(IF(H9&gt;H8,H26+H9,H26-H9),IF(H9&gt;G9,G27+H9,G27-H9))</f>
+        <v>2559</v>
       </c>
       <c r="I27" s="2">
-        <f>MIN(I26,H27)+I9</f>
-        <v>2207</v>
+        <f>MAX(IF(I9&gt;I8,I26+I9,I26-I9),IF(I9&gt;H9,H27+I9,H27-I9))</f>
+        <v>2603</v>
       </c>
       <c r="J27" s="2">
-        <f>MIN(J26,I27)+J9</f>
-        <v>2280</v>
+        <f>MAX(IF(J9&gt;J8,J26+J9,J26-J9),IF(J9&gt;I9,I27+J9,I27-J9))</f>
+        <v>2676</v>
       </c>
       <c r="K27" s="2">
-        <f>MIN(K26,J27)+K9</f>
-        <v>2111</v>
+        <f>MAX(IF(K9&gt;K8,K26+K9,K26-K9),IF(K9&gt;J9,J27+K9,J27-K9))</f>
+        <v>2652</v>
       </c>
       <c r="L27" s="2">
-        <f>MIN(L26,K27)+L9</f>
-        <v>2158</v>
+        <f>MAX(IF(L9&gt;L8,L26+L9,L26-L9),IF(L9&gt;K9,K27+L9,K27-L9))</f>
+        <v>2699</v>
       </c>
       <c r="M27" s="2">
-        <f>MIN(M26,L27)+M9</f>
-        <v>2200</v>
+        <f>MAX(IF(M9&gt;M8,M26+M9,M26-M9),IF(M9&gt;L9,L27+M9,L27-M9))</f>
+        <v>2718</v>
       </c>
       <c r="N27" s="2">
-        <f>MIN(N26,M27)+N9</f>
-        <v>2252</v>
+        <f>MAX(IF(N9&gt;N8,N26+N9,N26-N9),IF(N9&gt;M9,M27+N9,M27-N9))</f>
+        <v>2770</v>
       </c>
       <c r="O27" s="2">
-        <f>MIN(O26,N27)+O9</f>
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O9&gt;O8,O26+O9,O26-O9),IF(O9&gt;N9,N27+O9,N27-O9))</f>
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>2340</v>
       </c>
       <c r="B28" s="2">
-        <f>MIN(B27,A28)+B10</f>
-        <v>2349</v>
+        <f>MAX(IF(B10&gt;B9,B27+B10,B27-B10),IF(B10&gt;A10,A28+B10,A28-B10))</f>
+        <v>2328</v>
       </c>
       <c r="C28" s="2">
-        <f>MIN(C27,B28)+C10</f>
-        <v>2245</v>
+        <f>MAX(IF(C10&gt;C9,C27+C10,C27-C10),IF(C10&gt;B10,B28+C10,B28-C10))</f>
+        <v>2410</v>
       </c>
       <c r="D28" s="2">
-        <f>MIN(D27,C28)+D10</f>
-        <v>2279</v>
+        <f>MAX(IF(D10&gt;D9,D27+D10,D27-D10),IF(D10&gt;C10,C28+D10,C28-D10))</f>
+        <v>2376</v>
       </c>
       <c r="E28" s="2">
-        <f>MIN(E27,D28)+E10</f>
-        <v>2286</v>
+        <f>MAX(IF(E10&gt;E9,E27+E10,E27-E10),IF(E10&gt;D10,D28+E10,D28-E10))</f>
+        <v>2489</v>
       </c>
       <c r="F28" s="2">
-        <f>MIN(F27,E28)+F10</f>
-        <v>2146</v>
+        <f>MAX(IF(F10&gt;F9,F27+F10,F27-F10),IF(F10&gt;E10,E28+F10,E28-F10))</f>
+        <v>2544</v>
       </c>
       <c r="G28" s="2">
-        <f>MIN(G27,F28)+G10</f>
-        <v>2216</v>
+        <f>MAX(IF(G10&gt;G9,G27+G10,G27-G10),IF(G10&gt;F10,F28+G10,F28-G10))</f>
+        <v>2647</v>
       </c>
       <c r="H28" s="2">
-        <f>MIN(H27,G28)+H10</f>
-        <v>2208</v>
+        <f>MAX(IF(H10&gt;H9,H27+H10,H27-H10),IF(H10&gt;G10,G28+H10,G28-H10))</f>
+        <v>2627</v>
       </c>
       <c r="I28" s="2">
-        <f>MIN(I27,H28)+I10</f>
-        <v>2285</v>
+        <f>MAX(IF(I10&gt;I9,I27+I10,I27-I10),IF(I10&gt;H10,H28+I10,H28-I10))</f>
+        <v>2705</v>
       </c>
       <c r="J28" s="2">
-        <f>MIN(J27,I28)+J10</f>
-        <v>2329</v>
+        <f>MAX(IF(J10&gt;J9,J27+J10,J27-J10),IF(J10&gt;I10,I28+J10,I28-J10))</f>
+        <v>2656</v>
       </c>
       <c r="K28" s="2">
-        <f>MIN(K27,J28)+K10</f>
-        <v>2118</v>
+        <f>MAX(IF(K10&gt;K9,K27+K10,K27-K10),IF(K10&gt;J10,J28+K10,J28-K10))</f>
+        <v>2649</v>
       </c>
       <c r="L28" s="2">
-        <f>MIN(L27,K28)+L10</f>
-        <v>2192</v>
+        <f>MAX(IF(L10&gt;L9,L27+L10,L27-L10),IF(L10&gt;K10,K28+L10,K28-L10))</f>
+        <v>2773</v>
       </c>
       <c r="M28" s="2">
-        <f>MIN(M27,L28)+M10</f>
-        <v>2261</v>
+        <f>MAX(IF(M10&gt;M9,M27+M10,M27-M10),IF(M10&gt;L10,L28+M10,L28-M10))</f>
+        <v>2787</v>
       </c>
       <c r="N28" s="2">
-        <f>MIN(N27,M28)+N10</f>
-        <v>2342</v>
+        <f>MAX(IF(N10&gt;N9,N27+N10,N27-N10),IF(N10&gt;M10,M28+N10,M28-N10))</f>
+        <v>2877</v>
       </c>
       <c r="O28" s="2">
-        <f>MIN(O27,N28)+O10</f>
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O10&gt;O9,O27+O10,O27-O10),IF(O10&gt;N10,N28+O10,N28-O10))</f>
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>2430</v>
       </c>
       <c r="B29" s="2">
-        <f>MIN(B28,A29)+B11</f>
-        <v>2425</v>
+        <f>MAX(IF(B11&gt;B10,B28+B11,B28-B11),IF(B11&gt;A11,A29+B11,A29-B11))</f>
+        <v>2404</v>
       </c>
       <c r="C29" s="2">
-        <f>MIN(C28,B29)+C11</f>
-        <v>2277</v>
+        <f>MAX(IF(C11&gt;C10,C28+C11,C28-C11),IF(C11&gt;B11,B29+C11,B29-C11))</f>
+        <v>2378</v>
       </c>
       <c r="D29" s="2">
-        <f>MIN(D28,C29)+D11</f>
-        <v>2308</v>
+        <f>MAX(IF(D11&gt;D10,D28+D11,D28-D11),IF(D11&gt;C11,C29+D11,C29-D11))</f>
+        <v>2347</v>
       </c>
       <c r="E29" s="2">
-        <f>MIN(E28,D29)+E11</f>
-        <v>2332</v>
+        <f>MAX(IF(E11&gt;E10,E28+E11,E28-E11),IF(E11&gt;D11,D29+E11,D29-E11))</f>
+        <v>2443</v>
       </c>
       <c r="F29" s="2">
-        <f>MIN(F28,E29)+F11</f>
-        <v>2205</v>
+        <f>MAX(IF(F11&gt;F10,F28+F11,F28-F11),IF(F11&gt;E11,E29+F11,E29-F11))</f>
+        <v>2603</v>
       </c>
       <c r="G29" s="2">
-        <f>MIN(G28,F29)+G11</f>
-        <v>2240</v>
+        <f>MAX(IF(G11&gt;G10,G28+G11,G28-G11),IF(G11&gt;F11,F29+G11,F29-G11))</f>
+        <v>2612</v>
       </c>
       <c r="H29" s="2">
-        <f>MIN(H28,G29)+H11</f>
-        <v>2217</v>
+        <f>MAX(IF(H11&gt;H10,H28+H11,H28-H11),IF(H11&gt;G11,G29+H11,G29-H11))</f>
+        <v>2618</v>
       </c>
       <c r="I29" s="2">
-        <f>MIN(I28,H29)+I11</f>
-        <v>2227</v>
+        <f>MAX(IF(I11&gt;I10,I28+I11,I28-I11),IF(I11&gt;H11,H29+I11,H29-I11))</f>
+        <v>2695</v>
       </c>
       <c r="J29" s="2">
-        <f>MIN(J28,I29)+J11</f>
-        <v>2259</v>
+        <f>MAX(IF(J11&gt;J10,J28+J11,J28-J11),IF(J11&gt;I11,I29+J11,I29-J11))</f>
+        <v>2727</v>
       </c>
       <c r="K29" s="2">
-        <f>MIN(K28,J29)+K11</f>
-        <v>2211</v>
+        <f>MAX(IF(K11&gt;K10,K28+K11,K28-K11),IF(K11&gt;J11,J29+K11,J29-K11))</f>
+        <v>2820</v>
       </c>
       <c r="L29" s="2">
-        <f>MIN(L28,K29)+L11</f>
-        <v>2198</v>
+        <f>MAX(IF(L11&gt;L10,L28+L11,L28-L11),IF(L11&gt;K11,K29+L11,K29-L11))</f>
+        <v>2814</v>
       </c>
       <c r="M29" s="2">
-        <f>MIN(M28,L29)+M11</f>
-        <v>2217</v>
+        <f>MAX(IF(M11&gt;M10,M28+M11,M28-M11),IF(M11&gt;L11,L29+M11,L29-M11))</f>
+        <v>2833</v>
       </c>
       <c r="N29" s="2">
-        <f>MIN(N28,M29)+N11</f>
-        <v>2257</v>
+        <f>MAX(IF(N11&gt;N10,N28+N11,N28-N11),IF(N11&gt;M11,M29+N11,M29-N11))</f>
+        <v>2873</v>
       </c>
       <c r="O29" s="2">
-        <f>MIN(O28,N29)+O11</f>
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O11&gt;O10,O28+O11,O28-O11),IF(O11&gt;N11,N29+O11,N29-O11))</f>
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>2363</v>
       </c>
       <c r="B30" s="2">
-        <f>MIN(B29,A30)+B12</f>
-        <v>2384</v>
+        <f>MAX(IF(B12&gt;B11,B29+B12,B29-B12),IF(B12&gt;A12,A30+B12,A30-B12))</f>
+        <v>2383</v>
       </c>
       <c r="C30" s="2">
-        <f>MIN(C29,B30)+C12</f>
-        <v>2351</v>
+        <f>MAX(IF(C12&gt;C11,C29+C12,C29-C12),IF(C12&gt;B12,B30+C12,B30-C12))</f>
+        <v>2457</v>
       </c>
       <c r="D30" s="2">
-        <f>MIN(D29,C30)+D12</f>
-        <v>2367</v>
+        <f>MAX(IF(D12&gt;D11,D29+D12,D29-D12),IF(D12&gt;C12,C30+D12,C30-D12))</f>
+        <v>2406</v>
       </c>
       <c r="E30" s="2">
-        <f>MIN(E29,D30)+E12</f>
-        <v>2430</v>
+        <f>MAX(IF(E12&gt;E11,E29+E12,E29-E12),IF(E12&gt;D12,D30+E12,D30-E12))</f>
+        <v>2541</v>
       </c>
       <c r="F30" s="2">
-        <f>MIN(F29,E30)+F12</f>
-        <v>2220</v>
+        <f>MAX(IF(F12&gt;F11,F29+F12,F29-F12),IF(F12&gt;E12,E30+F12,E30-F12))</f>
+        <v>2588</v>
       </c>
       <c r="G30" s="2">
-        <f>MIN(G29,F30)+G12</f>
-        <v>2269</v>
+        <f>MAX(IF(G12&gt;G11,G29+G12,G29-G12),IF(G12&gt;F12,F30+G12,F30-G12))</f>
+        <v>2661</v>
       </c>
       <c r="H30" s="2">
-        <f>MIN(H29,G30)+H12</f>
-        <v>2287</v>
+        <f>MAX(IF(H12&gt;H11,H29+H12,H29-H12),IF(H12&gt;G12,G30+H12,G30-H12))</f>
+        <v>2731</v>
       </c>
       <c r="I30" s="2">
-        <f>MIN(I29,H30)+I12</f>
-        <v>2258</v>
+        <f>MAX(IF(I12&gt;I11,I29+I12,I29-I12),IF(I12&gt;H12,H30+I12,H30-I12))</f>
+        <v>2726</v>
       </c>
       <c r="J30" s="2">
-        <f>MIN(J29,I30)+J12</f>
-        <v>2306</v>
+        <f>MAX(IF(J12&gt;J11,J29+J12,J29-J12),IF(J12&gt;I12,I30+J12,I30-J12))</f>
+        <v>2775</v>
       </c>
       <c r="K30" s="2">
-        <f>MIN(K29,J30)+K12</f>
-        <v>2274</v>
+        <f>MAX(IF(K12&gt;K11,K29+K12,K29-K12),IF(K12&gt;J12,J30+K12,J30-K12))</f>
+        <v>2838</v>
       </c>
       <c r="L30" s="2">
-        <f>MIN(L29,K30)+L12</f>
-        <v>2250</v>
+        <f>MAX(IF(L12&gt;L11,L29+L12,L29-L12),IF(L12&gt;K12,K30+L12,K30-L12))</f>
+        <v>2866</v>
       </c>
       <c r="M30" s="2">
-        <f>MIN(M29,L30)+M12</f>
-        <v>2287</v>
+        <f>MAX(IF(M12&gt;M11,M29+M12,M29-M12),IF(M12&gt;L12,L30+M12,L30-M12))</f>
+        <v>2936</v>
       </c>
       <c r="N30" s="2">
-        <f>MIN(N29,M30)+N12</f>
-        <v>2290</v>
+        <f>MAX(IF(N12&gt;N11,N29+N12,N29-N12),IF(N12&gt;M12,M30+N12,M30-N12))</f>
+        <v>2903</v>
       </c>
       <c r="O30" s="2">
-        <f>MIN(O29,N30)+O12</f>
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O12&gt;O11,O29+O12,O29-O12),IF(O12&gt;N12,N30+O12,N30-O12))</f>
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>2317</v>
       </c>
       <c r="B31" s="2">
-        <f>MIN(B30,A31)+B13</f>
-        <v>2356</v>
+        <f>MAX(IF(B13&gt;B12,B30+B13,B30-B13),IF(B13&gt;A13,A31+B13,A31-B13))</f>
+        <v>2422</v>
       </c>
       <c r="C31" s="2">
-        <f>MIN(C30,B31)+C13</f>
-        <v>2402</v>
+        <f>MAX(IF(C13&gt;C12,C30+C13,C30-C13),IF(C13&gt;B13,B31+C13,B31-C13))</f>
+        <v>2473</v>
       </c>
       <c r="D31" s="2">
-        <f>MIN(D30,C31)+D13</f>
-        <v>2444</v>
+        <f>MAX(IF(D13&gt;D12,D30+D13,D30-D13),IF(D13&gt;C13,C31+D13,C31-D13))</f>
+        <v>2550</v>
       </c>
       <c r="E31" s="2">
-        <f>MIN(E30,D31)+E13</f>
-        <v>2508</v>
+        <f>MAX(IF(E13&gt;E12,E30+E13,E30-E13),IF(E13&gt;D13,D31+E13,D31-E13))</f>
+        <v>2628</v>
       </c>
       <c r="F31" s="2">
-        <f>MIN(F30,E31)+F13</f>
-        <v>2256</v>
+        <f>MAX(IF(F13&gt;F12,F30+F13,F30-F13),IF(F13&gt;E13,E31+F13,E31-F13))</f>
+        <v>2624</v>
       </c>
       <c r="G31" s="2">
-        <f>MIN(G30,F31)+G13</f>
-        <v>2302</v>
+        <f>MAX(IF(G13&gt;G12,G30+G13,G30-G13),IF(G13&gt;F13,F31+G13,F31-G13))</f>
+        <v>2670</v>
       </c>
       <c r="H31" s="2">
-        <f>MIN(H30,G31)+H13</f>
-        <v>2337</v>
+        <f>MAX(IF(H13&gt;H12,H30+H13,H30-H13),IF(H13&gt;G13,G31+H13,G31-H13))</f>
+        <v>2720</v>
       </c>
       <c r="I31" s="2">
-        <f>MIN(I30,H31)+I13</f>
-        <v>2270</v>
+        <f>MAX(IF(I13&gt;I12,I30+I13,I30-I13),IF(I13&gt;H13,H31+I13,H31-I13))</f>
+        <v>2714</v>
       </c>
       <c r="J31" s="2">
-        <f>MIN(J30,I31)+J13</f>
-        <v>2326</v>
+        <f>MAX(IF(J13&gt;J12,J30+J13,J30-J13),IF(J13&gt;I13,I31+J13,I31-J13))</f>
+        <v>2831</v>
       </c>
       <c r="K31" s="2">
-        <f>MIN(K30,J31)+K13</f>
-        <v>2349</v>
+        <f>MAX(IF(K13&gt;K12,K30+K13,K30-K13),IF(K13&gt;J13,J31+K13,J31-K13))</f>
+        <v>2913</v>
       </c>
       <c r="L31" s="2">
-        <f>MIN(L30,K31)+L13</f>
-        <v>2327</v>
+        <f>MAX(IF(L13&gt;L12,L30+L13,L30-L13),IF(L13&gt;K13,K31+L13,K31-L13))</f>
+        <v>2990</v>
       </c>
       <c r="M31" s="2">
-        <f>MIN(M30,L31)+M13</f>
-        <v>2323</v>
+        <f>MAX(IF(M13&gt;M12,M30+M13,M30-M13),IF(M13&gt;L13,L31+M13,L31-M13))</f>
+        <v>2954</v>
       </c>
       <c r="N31" s="2">
-        <f>MIN(N30,M31)+N13</f>
-        <v>2295</v>
+        <f>MAX(IF(N13&gt;N12,N30+N13,N30-N13),IF(N13&gt;M13,M31+N13,M31-N13))</f>
+        <v>2949</v>
       </c>
       <c r="O31" s="2">
-        <f>MIN(O30,N31)+O13</f>
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <f>MAX(IF(O13&gt;O12,O30+O13,O30-O13),IF(O13&gt;N13,N31+O13,N31-O13))</f>
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>2291</v>
       </c>
       <c r="B32" s="2">
-        <f>MIN(B31,A32)+B14</f>
-        <v>2353</v>
+        <f>MAX(IF(B14&gt;B13,B31+B14,B31-B14),IF(B14&gt;A14,A32+B14,A32-B14))</f>
+        <v>2484</v>
       </c>
       <c r="C32" s="2">
-        <f>MIN(C31,B32)+C14</f>
-        <v>2438</v>
+        <f>MAX(IF(C14&gt;C13,C31+C14,C31-C14),IF(C14&gt;B14,B32+C14,B32-C14))</f>
+        <v>2569</v>
       </c>
       <c r="D32" s="2">
-        <f>MIN(D31,C32)+D14</f>
-        <v>2445</v>
+        <f>MAX(IF(D14&gt;D13,D31+D14,D31-D14),IF(D14&gt;C14,C32+D14,C32-D14))</f>
+        <v>2562</v>
       </c>
       <c r="E32" s="2">
-        <f>MIN(E31,D32)+E14</f>
-        <v>2460</v>
+        <f>MAX(IF(E14&gt;E13,E31+E14,E31-E14),IF(E14&gt;D14,D32+E14,D32-E14))</f>
+        <v>2613</v>
       </c>
       <c r="F32" s="2">
-        <f>MIN(F31,E32)+F14</f>
-        <v>2330</v>
+        <f>MAX(IF(F14&gt;F13,F31+F14,F31-F14),IF(F14&gt;E14,E32+F14,E32-F14))</f>
+        <v>2698</v>
       </c>
       <c r="G32" s="2">
-        <f>MIN(G31,F32)+G14</f>
-        <v>2341</v>
+        <f>MAX(IF(G14&gt;G13,G31+G14,G31-G14),IF(G14&gt;F14,F32+G14,F32-G14))</f>
+        <v>2659</v>
       </c>
       <c r="H32" s="2">
-        <f>MIN(H31,G32)+H14</f>
-        <v>2431</v>
+        <f>MAX(IF(H14&gt;H13,H31+H14,H31-H14),IF(H14&gt;G14,G32+H14,G32-H14))</f>
+        <v>2814</v>
       </c>
       <c r="I32" s="2">
-        <f>MIN(I31,H32)+I14</f>
-        <v>2323</v>
+        <f>MAX(IF(I14&gt;I13,I31+I14,I31-I14),IF(I14&gt;H14,H32+I14,H32-I14))</f>
+        <v>2767</v>
       </c>
       <c r="J32" s="2">
-        <f>MIN(J31,I32)+J14</f>
-        <v>2412</v>
+        <f>MAX(IF(J14&gt;J13,J31+J14,J31-J14),IF(J14&gt;I14,I32+J14,I32-J14))</f>
+        <v>2920</v>
       </c>
       <c r="K32" s="2">
-        <f>MIN(K31,J32)+K14</f>
-        <v>2402</v>
+        <f>MAX(IF(K14&gt;K13,K31+K14,K31-K14),IF(K14&gt;J14,J32+K14,J32-K14))</f>
+        <v>2867</v>
       </c>
       <c r="L32" s="2">
-        <f>MIN(L31,K32)+L14</f>
-        <v>2382</v>
+        <f>MAX(IF(L14&gt;L13,L31+L14,L31-L14),IF(L14&gt;K14,K32+L14,K32-L14))</f>
+        <v>2935</v>
       </c>
       <c r="M32" s="2">
-        <f>MIN(M31,L32)+M14</f>
-        <v>2326</v>
+        <f>MAX(IF(M14&gt;M13,M31+M14,M31-M14),IF(M14&gt;L14,L32+M14,L32-M14))</f>
+        <v>2951</v>
       </c>
       <c r="N32" s="2">
-        <f>MIN(N31,M32)+N14</f>
-        <v>2344</v>
+        <f>MAX(IF(N14&gt;N13,N31+N14,N31-N14),IF(N14&gt;M14,M32+N14,M32-N14))</f>
+        <v>3000</v>
       </c>
       <c r="O32" s="2">
-        <f>MIN(O31,N32)+O14</f>
-        <v>2310</v>
+        <f>MAX(IF(O14&gt;O13,O31+O14,O31-O14),IF(O14&gt;N14,N32+O14,N32-O14))</f>
+        <v>2996</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2039,60 +2033,60 @@
         <v>2270</v>
       </c>
       <c r="B33" s="2">
-        <f>MIN(B32,A33)+B15</f>
-        <v>2364</v>
+        <f>MAX(IF(B15&gt;B14,B32+B15,B32-B15),IF(B15&gt;A15,A33+B15,A33-B15))</f>
+        <v>2578</v>
       </c>
       <c r="C33" s="2">
-        <f>MIN(C32,B33)+C15</f>
-        <v>2404</v>
+        <f>MAX(IF(C15&gt;C14,C32+C15,C32-C15),IF(C15&gt;B15,B33+C15,B33-C15))</f>
+        <v>2538</v>
       </c>
       <c r="D33" s="2">
-        <f>MIN(D32,C33)+D15</f>
-        <v>2426</v>
+        <f>MAX(IF(D15&gt;D14,D32+D15,D32-D15),IF(D15&gt;C15,C33+D15,C33-D15))</f>
+        <v>2584</v>
       </c>
       <c r="E33" s="2">
-        <f>MIN(E32,D33)+E15</f>
-        <v>2461</v>
+        <f>MAX(IF(E15&gt;E14,E32+E15,E32-E15),IF(E15&gt;D15,D33+E15,D33-E15))</f>
+        <v>2648</v>
       </c>
       <c r="F33" s="2">
-        <f>MIN(F32,E33)+F15</f>
-        <v>2380</v>
+        <f>MAX(IF(F15&gt;F14,F32+F15,F32-F15),IF(F15&gt;E15,E33+F15,E33-F15))</f>
+        <v>2698</v>
       </c>
       <c r="G33" s="2">
-        <f>MIN(G32,F33)+G15</f>
-        <v>2426</v>
+        <f>MAX(IF(G15&gt;G14,G32+G15,G32-G15),IF(G15&gt;F15,F33+G15,F33-G15))</f>
+        <v>2783</v>
       </c>
       <c r="H33" s="2">
-        <f>MIN(H32,G33)+H15</f>
-        <v>2487</v>
+        <f>MAX(IF(H15&gt;H14,H32+H15,H32-H15),IF(H15&gt;G15,G33+H15,G33-H15))</f>
+        <v>2753</v>
       </c>
       <c r="I33" s="2">
-        <f>MIN(I32,H33)+I15</f>
-        <v>2352</v>
+        <f>MAX(IF(I15&gt;I14,I32+I15,I32-I15),IF(I15&gt;H15,H33+I15,H33-I15))</f>
+        <v>2738</v>
       </c>
       <c r="J33" s="2">
-        <f>MIN(J32,I33)+J15</f>
-        <v>2428</v>
+        <f>MAX(IF(J15&gt;J14,J32+J15,J32-J15),IF(J15&gt;I15,I33+J15,I33-J15))</f>
+        <v>2844</v>
       </c>
       <c r="K33" s="2">
-        <f>MIN(K32,J33)+K15</f>
-        <v>2420</v>
+        <f>MAX(IF(K15&gt;K14,K32+K15,K32-K15),IF(K15&gt;J15,J33+K15,J33-K15))</f>
+        <v>2849</v>
       </c>
       <c r="L33" s="2">
-        <f>MIN(L32,K33)+L15</f>
-        <v>2444</v>
+        <f>MAX(IF(L15&gt;L14,L32+L15,L32-L15),IF(L15&gt;K15,K33+L15,K33-L15))</f>
+        <v>2997</v>
       </c>
       <c r="M33" s="2">
-        <f>MIN(M32,L33)+M15</f>
-        <v>2378</v>
+        <f>MAX(IF(M15&gt;M14,M32+M15,M32-M15),IF(M15&gt;L15,L33+M15,L33-M15))</f>
+        <v>3003</v>
       </c>
       <c r="N33" s="2">
-        <f>MIN(N32,M33)+N15</f>
-        <v>2438</v>
+        <f>MAX(IF(N15&gt;N14,N32+N15,N32-N15),IF(N15&gt;M15,M33+N15,M33-N15))</f>
+        <v>3097</v>
       </c>
       <c r="O33" s="3">
-        <f>MIN(O32,N33)+O15</f>
-        <v>2326</v>
+        <f>MAX(IF(O15&gt;O14,O32+O15,O32-O15),IF(O15&gt;N15,N33+O15,N33-O15))</f>
+        <v>3081</v>
       </c>
     </row>
   </sheetData>
